--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_KimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_KimLong.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang1\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang1\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ACT-01" sheetId="38" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -479,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -652,9 +652,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,6 +682,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -702,30 +723,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1036,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1069,43 +1066,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1150,109 +1147,109 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="66" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="67" t="s">
+      <c r="J5" s="76"/>
+      <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="65">
         <v>44581</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="37" t="s">
         <v>57</v>
       </c>
@@ -1283,23 +1280,23 @@
         <v>36</v>
       </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="77" t="s">
+      <c r="T6" s="67"/>
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="68"/>
+      <c r="W6" s="67"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="65">
         <v>44581</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="37" t="s">
         <v>57</v>
       </c>
@@ -1322,19 +1319,19 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="78"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="68"/>
+      <c r="W7" s="67"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="37"/>
       <c r="E8" s="38"/>
       <c r="F8" s="37"/>
@@ -1351,19 +1348,19 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="78"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="68"/>
+      <c r="W8" s="67"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="66"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
       <c r="F9" s="49"/>
@@ -1380,19 +1377,19 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="78"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="68"/>
+      <c r="W9" s="67"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="66"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="37"/>
       <c r="E10" s="38"/>
       <c r="F10" s="49"/>
@@ -1401,7 +1398,7 @@
       <c r="I10" s="48"/>
       <c r="J10" s="1"/>
       <c r="K10" s="39"/>
-      <c r="L10" s="59"/>
+      <c r="L10" s="58"/>
       <c r="M10" s="39"/>
       <c r="N10" s="1"/>
       <c r="O10" s="39"/>
@@ -1409,19 +1406,19 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="78"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="68"/>
+      <c r="W10" s="67"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="66"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="37"/>
       <c r="E11" s="38"/>
       <c r="F11" s="49"/>
@@ -1438,19 +1435,19 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="78"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="68"/>
+      <c r="W11" s="67"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="66"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="37"/>
       <c r="E12" s="38"/>
       <c r="F12" s="37"/>
@@ -1467,21 +1464,21 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="77" t="s">
+      <c r="T12" s="67"/>
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="68"/>
+      <c r="W12" s="67"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="66"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
       <c r="F13" s="49"/>
@@ -1498,19 +1495,19 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="78"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="68"/>
+      <c r="W13" s="67"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="66"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="37"/>
       <c r="E14" s="38"/>
       <c r="F14" s="37"/>
@@ -1527,19 +1524,19 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="78"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="68"/>
+      <c r="W14" s="67"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="66"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="37"/>
       <c r="E15" s="38"/>
       <c r="F15" s="49"/>
@@ -1557,18 +1554,18 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="68"/>
+      <c r="W15" s="67"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="66"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="37"/>
       <c r="E16" s="38"/>
       <c r="F16" s="49"/>
@@ -1586,18 +1583,18 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="68"/>
+      <c r="W16" s="67"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="66"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="37"/>
       <c r="E17" s="38"/>
       <c r="F17" s="37"/>
@@ -1615,15 +1612,15 @@
       <c r="R17" s="37"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="68"/>
+      <c r="U17" s="67"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="68"/>
+      <c r="W17" s="67"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="62"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="8"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -1650,7 +1647,7 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="62"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="8"/>
       <c r="D19" s="37"/>
       <c r="E19" s="50"/>
@@ -1669,7 +1666,7 @@
       <c r="R19" s="37"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="67" t="s">
+      <c r="U19" s="66" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -1681,7 +1678,7 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="63"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="8"/>
       <c r="D20" s="37"/>
       <c r="E20" s="38"/>
@@ -1713,7 +1710,7 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="63"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="8"/>
       <c r="D21" s="37"/>
       <c r="E21" s="38"/>
@@ -1745,7 +1742,7 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="63"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="8"/>
       <c r="D22" s="37"/>
       <c r="E22" s="38"/>
@@ -1777,7 +1774,7 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="63"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="8"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
@@ -1804,7 +1801,7 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="63"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="8"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
@@ -1831,7 +1828,7 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="63"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="8"/>
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
@@ -1850,7 +1847,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="67" t="s">
+      <c r="U25" s="66" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -1862,7 +1859,7 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="63"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="8"/>
       <c r="D26" s="37"/>
       <c r="E26" s="38"/>
@@ -1894,7 +1891,7 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="63"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="8"/>
       <c r="D27" s="37"/>
       <c r="E27" s="38"/>
@@ -1926,7 +1923,7 @@
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="63"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="8"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
@@ -1958,7 +1955,7 @@
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="63"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="8"/>
       <c r="D29" s="37"/>
       <c r="E29" s="38"/>
@@ -1990,7 +1987,7 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="63"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
@@ -2022,7 +2019,7 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="63"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
@@ -2054,7 +2051,7 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="63"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
@@ -2086,7 +2083,7 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="63"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
@@ -2118,7 +2115,7 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="63"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
@@ -2150,7 +2147,7 @@
       <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="63"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
@@ -2182,7 +2179,7 @@
       <c r="A36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="63"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
@@ -2214,7 +2211,7 @@
       <c r="A37" s="3">
         <v>32</v>
       </c>
-      <c r="B37" s="63"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
@@ -2246,7 +2243,7 @@
       <c r="A38" s="3">
         <v>33</v>
       </c>
-      <c r="B38" s="63"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
@@ -2273,7 +2270,7 @@
       <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="63"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
@@ -2300,7 +2297,7 @@
       <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="63"/>
+      <c r="B40" s="62"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
@@ -2332,7 +2329,7 @@
       <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="63"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
@@ -2364,7 +2361,7 @@
       <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="63"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
       <c r="E42" s="10"/>
@@ -2391,7 +2388,7 @@
       <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="63"/>
+      <c r="B43" s="62"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
       <c r="E43" s="10"/>
@@ -2418,7 +2415,7 @@
       <c r="A44" s="3">
         <v>39</v>
       </c>
-      <c r="B44" s="63"/>
+      <c r="B44" s="62"/>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
       <c r="E44" s="10"/>
@@ -2454,7 +2451,7 @@
       <c r="A45" s="3">
         <v>40</v>
       </c>
-      <c r="B45" s="63"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
       <c r="E45" s="10"/>
@@ -2493,7 +2490,7 @@
       <c r="A46" s="3">
         <v>41</v>
       </c>
-      <c r="B46" s="63"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
@@ -2532,7 +2529,7 @@
       <c r="A47" s="3">
         <v>42</v>
       </c>
-      <c r="B47" s="63"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
       <c r="E47" s="10"/>
@@ -2571,7 +2568,7 @@
       <c r="A48" s="3">
         <v>43</v>
       </c>
-      <c r="B48" s="63"/>
+      <c r="B48" s="62"/>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
       <c r="E48" s="10"/>
@@ -2613,7 +2610,7 @@
       <c r="A49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="63"/>
+      <c r="B49" s="62"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
@@ -2641,7 +2638,7 @@
       <c r="A50" s="28">
         <v>45</v>
       </c>
-      <c r="B50" s="64"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="29"/>
       <c r="D50" s="43"/>
       <c r="E50" s="30"/>
@@ -2669,7 +2666,7 @@
       <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="63"/>
+      <c r="B51" s="62"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
       <c r="E51" s="10"/>
@@ -2697,7 +2694,7 @@
       <c r="A52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="65"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
@@ -2725,7 +2722,7 @@
       <c r="A53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="65"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
@@ -2753,7 +2750,7 @@
       <c r="A54" s="3">
         <v>49</v>
       </c>
-      <c r="B54" s="65"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
@@ -2781,7 +2778,7 @@
       <c r="A55" s="3">
         <v>50</v>
       </c>
-      <c r="B55" s="65"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
@@ -2817,13 +2814,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2835,6 +2825,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2845,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2878,43 +2875,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -2959,109 +2956,109 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="66" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="67" t="s">
+      <c r="J5" s="76"/>
+      <c r="K5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="67" t="s">
+      <c r="L5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="65">
         <v>44581</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -3100,21 +3097,21 @@
         <v>24</v>
       </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="77" t="s">
+      <c r="T6" s="67"/>
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="68"/>
+      <c r="W6" s="67"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
       <c r="F7" s="37"/>
@@ -3131,19 +3128,19 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="78"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="68"/>
+      <c r="W7" s="67"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="37"/>
       <c r="E8" s="38"/>
       <c r="F8" s="37"/>
@@ -3160,19 +3157,19 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="68"/>
-      <c r="U8" s="78"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="68"/>
+      <c r="W8" s="67"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="66"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
       <c r="F9" s="49"/>
@@ -3189,19 +3186,19 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="78"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="68"/>
+      <c r="W9" s="67"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="66"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="37"/>
       <c r="E10" s="38"/>
       <c r="F10" s="49"/>
@@ -3210,7 +3207,7 @@
       <c r="I10" s="48"/>
       <c r="J10" s="1"/>
       <c r="K10" s="39"/>
-      <c r="L10" s="59"/>
+      <c r="L10" s="58"/>
       <c r="M10" s="39"/>
       <c r="N10" s="1"/>
       <c r="O10" s="39"/>
@@ -3218,19 +3215,19 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="78"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="68"/>
+      <c r="W10" s="67"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="66"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="37"/>
       <c r="E11" s="38"/>
       <c r="F11" s="49"/>
@@ -3247,19 +3244,19 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="78"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="68"/>
+      <c r="W11" s="67"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="66"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="37"/>
       <c r="E12" s="38"/>
       <c r="F12" s="37"/>
@@ -3276,21 +3273,21 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="77" t="s">
+      <c r="T12" s="67"/>
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="68"/>
+      <c r="W12" s="67"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="66"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
       <c r="F13" s="49"/>
@@ -3307,19 +3304,19 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="78"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="68"/>
+      <c r="W13" s="67"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="66"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="37"/>
       <c r="E14" s="38"/>
       <c r="F14" s="37"/>
@@ -3336,19 +3333,19 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="78"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="68"/>
+      <c r="W14" s="67"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="66"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="37"/>
       <c r="E15" s="38"/>
       <c r="F15" s="49"/>
@@ -3366,18 +3363,18 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="68"/>
+      <c r="W15" s="67"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="66"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="37"/>
       <c r="E16" s="38"/>
       <c r="F16" s="49"/>
@@ -3395,18 +3392,18 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="68"/>
+      <c r="W16" s="67"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="66"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="37"/>
       <c r="E17" s="38"/>
       <c r="F17" s="37"/>
@@ -3424,15 +3421,15 @@
       <c r="R17" s="37"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="68"/>
+      <c r="U17" s="67"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="68"/>
+      <c r="W17" s="67"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="62"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="8"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -3459,7 +3456,7 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="62"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="8"/>
       <c r="D19" s="37"/>
       <c r="E19" s="50"/>
@@ -3478,7 +3475,7 @@
       <c r="R19" s="37"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="67" t="s">
+      <c r="U19" s="66" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -3490,7 +3487,7 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="63"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="8"/>
       <c r="D20" s="37"/>
       <c r="E20" s="38"/>
@@ -3522,7 +3519,7 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="63"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="8"/>
       <c r="D21" s="37"/>
       <c r="E21" s="38"/>
@@ -3554,7 +3551,7 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="63"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="8"/>
       <c r="D22" s="37"/>
       <c r="E22" s="38"/>
@@ -3586,7 +3583,7 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="63"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="8"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
@@ -3613,7 +3610,7 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="63"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="8"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
@@ -3640,7 +3637,7 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="63"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="8"/>
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
@@ -3659,7 +3656,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="67" t="s">
+      <c r="U25" s="66" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -3671,7 +3668,7 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="63"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="8"/>
       <c r="D26" s="37"/>
       <c r="E26" s="38"/>
@@ -3703,7 +3700,7 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="63"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="8"/>
       <c r="D27" s="37"/>
       <c r="E27" s="38"/>
@@ -3735,7 +3732,7 @@
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="63"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="8"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
@@ -3767,7 +3764,7 @@
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="63"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="8"/>
       <c r="D29" s="37"/>
       <c r="E29" s="38"/>
@@ -3799,7 +3796,7 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="63"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
@@ -3831,7 +3828,7 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="63"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
@@ -3863,7 +3860,7 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="63"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
@@ -3895,7 +3892,7 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="63"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
@@ -3927,7 +3924,7 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="63"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
@@ -3959,7 +3956,7 @@
       <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="63"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
@@ -3991,7 +3988,7 @@
       <c r="A36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="63"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
@@ -4023,7 +4020,7 @@
       <c r="A37" s="3">
         <v>32</v>
       </c>
-      <c r="B37" s="63"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
@@ -4055,7 +4052,7 @@
       <c r="A38" s="3">
         <v>33</v>
       </c>
-      <c r="B38" s="63"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
@@ -4082,7 +4079,7 @@
       <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="63"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
@@ -4109,7 +4106,7 @@
       <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="63"/>
+      <c r="B40" s="62"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
@@ -4141,7 +4138,7 @@
       <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="63"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
@@ -4173,7 +4170,7 @@
       <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="63"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
       <c r="E42" s="10"/>
@@ -4200,7 +4197,7 @@
       <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="63"/>
+      <c r="B43" s="62"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
       <c r="E43" s="10"/>
@@ -4227,7 +4224,7 @@
       <c r="A44" s="3">
         <v>39</v>
       </c>
-      <c r="B44" s="63"/>
+      <c r="B44" s="62"/>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
       <c r="E44" s="10"/>
@@ -4263,7 +4260,7 @@
       <c r="A45" s="3">
         <v>40</v>
       </c>
-      <c r="B45" s="63"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
       <c r="E45" s="10"/>
@@ -4302,7 +4299,7 @@
       <c r="A46" s="3">
         <v>41</v>
       </c>
-      <c r="B46" s="63"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
@@ -4341,7 +4338,7 @@
       <c r="A47" s="3">
         <v>42</v>
       </c>
-      <c r="B47" s="63"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
       <c r="E47" s="10"/>
@@ -4380,7 +4377,7 @@
       <c r="A48" s="3">
         <v>43</v>
       </c>
-      <c r="B48" s="63"/>
+      <c r="B48" s="62"/>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
       <c r="E48" s="10"/>
@@ -4422,7 +4419,7 @@
       <c r="A49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="63"/>
+      <c r="B49" s="62"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
@@ -4450,7 +4447,7 @@
       <c r="A50" s="28">
         <v>45</v>
       </c>
-      <c r="B50" s="64"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="29"/>
       <c r="D50" s="43"/>
       <c r="E50" s="30"/>
@@ -4478,7 +4475,7 @@
       <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="63"/>
+      <c r="B51" s="62"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
       <c r="E51" s="10"/>
@@ -4506,7 +4503,7 @@
       <c r="A52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="65"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
@@ -4534,7 +4531,7 @@
       <c r="A53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="65"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
@@ -4562,7 +4559,7 @@
       <c r="A54" s="3">
         <v>49</v>
       </c>
-      <c r="B54" s="65"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
@@ -4590,7 +4587,7 @@
       <c r="A55" s="3">
         <v>50</v>
       </c>
-      <c r="B55" s="65"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
@@ -4626,13 +4623,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4644,6 +4634,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4654,8 +4651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4687,43 +4684,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -4768,109 +4765,109 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="60" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="59" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
-      <c r="K5" s="60" t="s">
+      <c r="J5" s="76"/>
+      <c r="K5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="65">
         <v>44581</v>
       </c>
-      <c r="C6" s="66"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -4911,23 +4908,23 @@
         <v>24</v>
       </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="77" t="s">
+      <c r="T6" s="60"/>
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="61"/>
+      <c r="W6" s="60"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="65">
         <v>44581</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -4968,19 +4965,19 @@
         <v>74</v>
       </c>
       <c r="S7" s="3"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="78"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="61"/>
+      <c r="W7" s="60"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="37"/>
       <c r="E8" s="38"/>
       <c r="F8" s="37"/>
@@ -4997,18 +4994,18 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="78"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="61"/>
+      <c r="W8" s="60"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="62"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="36"/>
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
@@ -5026,18 +5023,18 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="78"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="61"/>
+      <c r="W9" s="60"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
       <c r="E10" s="38"/>
@@ -5047,7 +5044,7 @@
       <c r="I10" s="48"/>
       <c r="J10" s="1"/>
       <c r="K10" s="39"/>
-      <c r="L10" s="59"/>
+      <c r="L10" s="58"/>
       <c r="M10" s="39"/>
       <c r="N10" s="1"/>
       <c r="O10" s="39"/>
@@ -5055,18 +5052,18 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="78"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="61"/>
+      <c r="W10" s="60"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="36"/>
       <c r="D11" s="37"/>
       <c r="E11" s="38"/>
@@ -5084,18 +5081,18 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="78"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="61"/>
+      <c r="W11" s="60"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="62"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>
       <c r="E12" s="38"/>
@@ -5113,20 +5110,20 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="77" t="s">
+      <c r="T12" s="60"/>
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="61"/>
+      <c r="W12" s="60"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="62"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="38"/>
@@ -5144,18 +5141,18 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="78"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="61"/>
+      <c r="W13" s="60"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="62"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
       <c r="E14" s="38"/>
@@ -5173,18 +5170,18 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="78"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="61"/>
+      <c r="W14" s="60"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="62"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
       <c r="E15" s="38"/>
@@ -5203,17 +5200,17 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="61"/>
+      <c r="W15" s="60"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="62"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
       <c r="E16" s="38"/>
@@ -5232,17 +5229,17 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="61"/>
+      <c r="W16" s="60"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="62"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
       <c r="E17" s="38"/>
@@ -5261,15 +5258,15 @@
       <c r="R17" s="37"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="61"/>
+      <c r="U17" s="60"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="61"/>
+      <c r="W17" s="60"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="62"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="8"/>
       <c r="D18" s="37"/>
       <c r="E18" s="38"/>
@@ -5296,7 +5293,7 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="62"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="8"/>
       <c r="D19" s="37"/>
       <c r="E19" s="50"/>
@@ -5315,7 +5312,7 @@
       <c r="R19" s="37"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="60" t="s">
+      <c r="U19" s="59" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -5327,7 +5324,7 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="63"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="8"/>
       <c r="D20" s="37"/>
       <c r="E20" s="38"/>
@@ -5359,7 +5356,7 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="63"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="8"/>
       <c r="D21" s="37"/>
       <c r="E21" s="38"/>
@@ -5391,7 +5388,7 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="63"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="8"/>
       <c r="D22" s="37"/>
       <c r="E22" s="38"/>
@@ -5423,7 +5420,7 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="63"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="8"/>
       <c r="D23" s="37"/>
       <c r="E23" s="38"/>
@@ -5450,7 +5447,7 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="63"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="8"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
@@ -5477,7 +5474,7 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="63"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="8"/>
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
@@ -5496,7 +5493,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="60" t="s">
+      <c r="U25" s="59" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -5508,7 +5505,7 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="63"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="8"/>
       <c r="D26" s="37"/>
       <c r="E26" s="38"/>
@@ -5540,7 +5537,7 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="63"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="8"/>
       <c r="D27" s="37"/>
       <c r="E27" s="38"/>
@@ -5572,7 +5569,7 @@
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="63"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="8"/>
       <c r="D28" s="37"/>
       <c r="E28" s="38"/>
@@ -5604,7 +5601,7 @@
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="63"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="8"/>
       <c r="D29" s="37"/>
       <c r="E29" s="38"/>
@@ -5636,7 +5633,7 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="63"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="8"/>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
@@ -5668,7 +5665,7 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="63"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="8"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
@@ -5700,7 +5697,7 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="63"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
@@ -5732,7 +5729,7 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="63"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
@@ -5764,7 +5761,7 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="63"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
@@ -5796,7 +5793,7 @@
       <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="63"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
@@ -5828,7 +5825,7 @@
       <c r="A36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="63"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="8"/>
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
@@ -5860,7 +5857,7 @@
       <c r="A37" s="3">
         <v>32</v>
       </c>
-      <c r="B37" s="63"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
@@ -5892,7 +5889,7 @@
       <c r="A38" s="3">
         <v>33</v>
       </c>
-      <c r="B38" s="63"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
@@ -5919,7 +5916,7 @@
       <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="63"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
@@ -5946,7 +5943,7 @@
       <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="63"/>
+      <c r="B40" s="62"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
@@ -5978,7 +5975,7 @@
       <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="63"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
@@ -6010,7 +6007,7 @@
       <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="63"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
       <c r="E42" s="10"/>
@@ -6037,7 +6034,7 @@
       <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="63"/>
+      <c r="B43" s="62"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
       <c r="E43" s="10"/>
@@ -6064,7 +6061,7 @@
       <c r="A44" s="3">
         <v>39</v>
       </c>
-      <c r="B44" s="63"/>
+      <c r="B44" s="62"/>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
       <c r="E44" s="10"/>
@@ -6100,7 +6097,7 @@
       <c r="A45" s="3">
         <v>40</v>
       </c>
-      <c r="B45" s="63"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
       <c r="E45" s="10"/>
@@ -6139,7 +6136,7 @@
       <c r="A46" s="3">
         <v>41</v>
       </c>
-      <c r="B46" s="63"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
@@ -6178,7 +6175,7 @@
       <c r="A47" s="3">
         <v>42</v>
       </c>
-      <c r="B47" s="63"/>
+      <c r="B47" s="62"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
       <c r="E47" s="10"/>
@@ -6217,7 +6214,7 @@
       <c r="A48" s="3">
         <v>43</v>
       </c>
-      <c r="B48" s="63"/>
+      <c r="B48" s="62"/>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
       <c r="E48" s="10"/>
@@ -6259,7 +6256,7 @@
       <c r="A49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="63"/>
+      <c r="B49" s="62"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
@@ -6287,7 +6284,7 @@
       <c r="A50" s="28">
         <v>45</v>
       </c>
-      <c r="B50" s="64"/>
+      <c r="B50" s="63"/>
       <c r="C50" s="29"/>
       <c r="D50" s="43"/>
       <c r="E50" s="30"/>
@@ -6315,7 +6312,7 @@
       <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="63"/>
+      <c r="B51" s="62"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
       <c r="E51" s="10"/>
@@ -6343,7 +6340,7 @@
       <c r="A52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="65"/>
+      <c r="B52" s="64"/>
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
@@ -6371,7 +6368,7 @@
       <c r="A53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="65"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
@@ -6399,7 +6396,7 @@
       <c r="A54" s="3">
         <v>49</v>
       </c>
-      <c r="B54" s="65"/>
+      <c r="B54" s="64"/>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
@@ -6427,7 +6424,7 @@
       <c r="A55" s="3">
         <v>50</v>
       </c>
-      <c r="B55" s="65"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
@@ -6463,13 +6460,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6481,6 +6471,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6491,8 +6488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6524,43 +6521,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -6605,58 +6602,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="75" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="82" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -6681,35 +6678,43 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="82"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="B6" s="65">
+        <v>44581</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="H6" s="37"/>
       <c r="I6" s="54"/>
       <c r="J6" s="1"/>
@@ -6717,13 +6722,21 @@
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
+      <c r="O6" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6735,12 +6748,20 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="37"/>
+      <c r="B7" s="65">
+        <v>44581</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" s="37"/>
       <c r="I7" s="54"/>
       <c r="J7" s="1"/>
@@ -6754,7 +6775,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6764,26 +6785,50 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="65">
+        <v>44581</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="38">
+        <v>862549041578751</v>
+      </c>
       <c r="F8" s="49"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="L8" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6793,26 +6838,52 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="65">
+        <v>44581</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868183037839094</v>
+      </c>
       <c r="F9" s="49"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="H9" s="37"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="I9" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6822,26 +6893,52 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="65">
+        <v>44581</v>
+      </c>
+      <c r="C10" s="65"/>
+      <c r="D10" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="38">
+        <v>868183038017575</v>
+      </c>
       <c r="F10" s="49"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="G10" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>74</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6870,7 +6967,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6899,7 +6996,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6930,7 +7027,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6959,7 +7056,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6988,7 +7085,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7017,7 +7114,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7136,7 +7233,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -7200,7 +7297,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -7477,7 +7574,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -7573,7 +7670,7 @@
       </c>
       <c r="V34" s="9">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="13"/>
     </row>
@@ -7605,7 +7702,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -7669,7 +7766,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8248,13 +8345,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8266,6 +8356,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_KimLong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang1/02.XuLyBH/XLBH2201_KimLong.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang1\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang1\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="ACT-01" sheetId="38" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="87">
   <si>
     <t>STT</t>
   </si>
@@ -274,6 +274,30 @@
   </si>
   <si>
     <t>E.2.00.---24.200520</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>Thay module MC60</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GPS, lỗi Module MC60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID mới : 862549041572945  </t>
+  </si>
+  <si>
+    <t>ID mới : 2111017</t>
+  </si>
+  <si>
+    <t>ID mới : 21050020</t>
   </si>
 </sst>
 </file>
@@ -1033,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S7"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1249,35 +1273,43 @@
       <c r="B6" s="65">
         <v>44581</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="65">
+        <v>44601</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>68</v>
+      <c r="E6" s="38">
+        <v>2111008</v>
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="37" t="s">
+        <v>85</v>
+      </c>
       <c r="I6" s="54"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>65</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
@@ -1296,7 +1328,9 @@
       <c r="B7" s="65">
         <v>44581</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="65">
+        <v>44601</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>57</v>
       </c>
@@ -1307,17 +1341,31 @@
       <c r="G7" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="I7" s="54"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="37"/>
+      <c r="O7" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
       <c r="U7" s="69"/>
@@ -1702,7 +1750,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1734,7 +1782,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1979,7 +2027,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2139,7 +2187,7 @@
       </c>
       <c r="V34" s="9">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="13"/>
     </row>
@@ -2235,7 +2283,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2842,8 +2890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S6"/>
+    <sheetView showZeros="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3058,7 +3106,9 @@
       <c r="B6" s="65">
         <v>44581</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="65">
+        <v>44601</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -3069,19 +3119,21 @@
       <c r="G6" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="37" t="s">
+        <v>84</v>
+      </c>
       <c r="I6" s="54" t="s">
         <v>76</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="K6" s="39"/>
       <c r="L6" s="39" t="s">
         <v>78</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
@@ -3091,10 +3143,10 @@
         <v>65</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" s="37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
@@ -3511,7 +3563,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3543,7 +3595,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -3756,7 +3808,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -3980,7 +4032,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4651,8 +4703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S7"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4867,7 +4919,9 @@
       <c r="B6" s="65">
         <v>44581</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="65">
+        <v>44601</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -4924,7 +4978,9 @@
       <c r="B7" s="65">
         <v>44581</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="65">
+        <v>44601</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -6488,8 +6544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G18" sqref="A18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
